--- a/2ИСИП-222_ТерВер.xlsx
+++ b/2ИСИП-222_ТерВер.xlsx
@@ -560,13 +560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P41" sqref="P41"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -576,12 +576,12 @@
     <col min="3" max="8" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -616,7 +616,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -625,8 +625,20 @@
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -671,8 +683,24 @@
         <f>O4-M4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <f>IF(R$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:U19" si="0">IF(S$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -704,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L31" si="0">SUM(C5:J5)</f>
+        <f t="shared" ref="L5:L31" si="1">SUM(C5:J5)</f>
         <v>40</v>
       </c>
       <c r="M5" s="7">
@@ -714,11 +742,27 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P31" si="1">O5-M5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P5:P31" si="2">O5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:U31" si="3">IF(R$3=$M5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -750,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M6">
@@ -760,11 +804,27 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -796,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M7" s="7">
@@ -806,43 +866,59 @@
         <v>5</v>
       </c>
       <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5</v>
-      </c>
-      <c r="J8" s="7">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="M8" s="7">
@@ -852,11 +928,27 @@
         <v>5</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -888,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M9" s="7">
@@ -898,11 +990,27 @@
         <v>5</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -934,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M10" s="7">
@@ -944,11 +1052,27 @@
         <v>5</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -980,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M11" s="7">
@@ -990,11 +1114,27 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1026,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M12" s="7">
@@ -1036,11 +1176,27 @@
         <v>4</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1072,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M13" s="7">
@@ -1082,11 +1238,27 @@
         <v>4</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1118,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M14" s="7">
@@ -1128,11 +1300,27 @@
         <v>3</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1164,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M15">
@@ -1174,11 +1362,27 @@
         <v>5</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1210,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M16" s="7">
@@ -1220,11 +1424,27 @@
         <v>5</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1256,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M17" s="7">
@@ -1266,11 +1486,27 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1302,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M18" s="7">
@@ -1312,11 +1548,27 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1348,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M19" s="7">
@@ -1358,11 +1610,27 @@
         <v>4</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="11" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -1394,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M20" s="12">
@@ -1404,11 +1672,27 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1440,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M21" s="7">
@@ -1450,11 +1734,27 @@
         <v>5</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1486,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M22" s="7">
@@ -1496,11 +1796,27 @@
         <v>5</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1532,7 +1848,7 @@
         <v>5</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M23">
@@ -1542,11 +1858,27 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1578,7 +1910,7 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="M24" s="7">
@@ -1588,11 +1920,27 @@
         <v>4</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1624,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M25" s="7">
@@ -1634,11 +1982,27 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1670,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="M26" s="7">
@@ -1680,11 +2044,27 @@
         <v>4</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1716,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M27" s="7">
@@ -1726,11 +2106,27 @@
         <v>3</v>
       </c>
       <c r="P27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1773,11 +2169,27 @@
         <v>3</v>
       </c>
       <c r="P28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1809,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M29" s="7">
@@ -1819,11 +2231,27 @@
         <v>5</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1855,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M30" s="7">
@@ -1865,11 +2293,27 @@
         <v>3</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -1901,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M31" s="7">
@@ -1911,11 +2355,27 @@
         <v>3</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
@@ -2114,6 +2574,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="C4:J31 K28">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L31">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -2125,7 +2597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L31">
+  <conditionalFormatting sqref="M4:M31">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -2137,7 +2609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M31">
+  <conditionalFormatting sqref="C32:J32">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -2149,7 +2621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:J32">
+  <conditionalFormatting sqref="L32">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -2161,7 +2633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
+  <conditionalFormatting sqref="M32">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -2173,7 +2645,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32">
+  <conditionalFormatting sqref="C33:J33">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -2185,7 +2657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J33">
+  <conditionalFormatting sqref="L33">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -2197,7 +2669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33">
+  <conditionalFormatting sqref="M33">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -2209,7 +2681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33">
+  <conditionalFormatting sqref="C34:J34">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -2221,7 +2693,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:J34">
+  <conditionalFormatting sqref="L34">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -2233,7 +2705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+  <conditionalFormatting sqref="M34">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -2245,7 +2717,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M34">
+  <conditionalFormatting sqref="C35:J35">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -2257,7 +2729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:J35">
+  <conditionalFormatting sqref="L35">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -2269,7 +2741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
+  <conditionalFormatting sqref="M35">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -2281,7 +2753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M35">
+  <conditionalFormatting sqref="C36:J36">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -2293,7 +2765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:J36">
+  <conditionalFormatting sqref="L36">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -2305,7 +2777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36">
+  <conditionalFormatting sqref="M36">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -2317,7 +2789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M36">
+  <conditionalFormatting sqref="C37:J37">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2329,7 +2801,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:J37">
+  <conditionalFormatting sqref="L37">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2341,7 +2813,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
+  <conditionalFormatting sqref="M37">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2353,7 +2825,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M37">
+  <conditionalFormatting sqref="C38:J38">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2365,7 +2837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:J38">
+  <conditionalFormatting sqref="L38">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2377,7 +2849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
+  <conditionalFormatting sqref="M38">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2389,7 +2861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M38">
+  <conditionalFormatting sqref="C39:J39">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2401,7 +2873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:J39">
+  <conditionalFormatting sqref="L39">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2413,7 +2885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39">
+  <conditionalFormatting sqref="M39">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2425,7 +2897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M39">
+  <conditionalFormatting sqref="C40:J40">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2437,7 +2909,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:J40">
+  <conditionalFormatting sqref="L40">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2449,7 +2921,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40">
+  <conditionalFormatting sqref="M40">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2461,7 +2933,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M40">
+  <conditionalFormatting sqref="C41:J41">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2473,7 +2945,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:J41">
+  <conditionalFormatting sqref="L41">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2485,7 +2957,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
+  <conditionalFormatting sqref="M41">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2497,7 +2969,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M41">
+  <conditionalFormatting sqref="C42:J42">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2509,7 +2981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:J42">
+  <conditionalFormatting sqref="L42">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2521,7 +2993,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
+  <conditionalFormatting sqref="M42">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2533,7 +3005,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M42">
+  <conditionalFormatting sqref="C43:J43">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2545,7 +3017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:J43">
+  <conditionalFormatting sqref="L43">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2557,7 +3029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
+  <conditionalFormatting sqref="M43">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2569,7 +3041,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M43">
+  <conditionalFormatting sqref="C44:J44">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2581,7 +3053,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:J44">
+  <conditionalFormatting sqref="L44">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2593,7 +3065,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L44">
+  <conditionalFormatting sqref="M44">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2605,7 +3077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M44">
+  <conditionalFormatting sqref="C45:J45">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2617,7 +3089,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:J45">
+  <conditionalFormatting sqref="L45">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2629,7 +3101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45">
+  <conditionalFormatting sqref="M45">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2641,7 +3113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M45">
+  <conditionalFormatting sqref="C46:J46">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2653,7 +3125,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:J46">
+  <conditionalFormatting sqref="L46">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2665,7 +3137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
+  <conditionalFormatting sqref="M46">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2677,7 +3149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M46">
+  <conditionalFormatting sqref="R4:U31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/2ИСИП-222_ТерВер.xlsx
+++ b/2ИСИП-222_ТерВер.xlsx
@@ -563,10 +563,10 @@
   <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="U40" sqref="T40:U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2388,7 +2388,7 @@
       <c r="J32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
@@ -2400,8 +2400,20 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
@@ -2414,7 +2426,7 @@
       <c r="J34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
@@ -2426,8 +2438,24 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R35">
+        <f>SUM(R4:R31)</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ref="S35:U35" si="4">SUM(S4:S31)</f>
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
@@ -2440,7 +2468,7 @@
       <c r="J36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
@@ -2453,7 +2481,7 @@
       <c r="J37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
@@ -2466,7 +2494,7 @@
       <c r="J38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
@@ -2479,7 +2507,7 @@
       <c r="J39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
@@ -2492,7 +2520,7 @@
       <c r="J40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
@@ -2505,7 +2533,7 @@
       <c r="J41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
@@ -2518,7 +2546,7 @@
       <c r="J42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
@@ -2531,7 +2559,7 @@
       <c r="J43" s="7"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
@@ -2544,7 +2572,7 @@
       <c r="J44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
@@ -2557,7 +2585,7 @@
       <c r="J45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
@@ -2570,7 +2598,7 @@
       <c r="J46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="C4:J31 K28">

--- a/2ИСИП-222_ТерВер.xlsx
+++ b/2ИСИП-222_ТерВер.xlsx
@@ -563,10 +563,10 @@
   <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U40" sqref="T40:U40"/>
+      <selection pane="bottomRight" activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
